--- a/assets/ctwing.xlsx
+++ b/assets/ctwing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>特征值</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>产品ID，必填</t>
+  </si>
+  <si>
+    <t>secretKey</t>
+  </si>
+  <si>
+    <t>密钥，只有在一型一密时必填</t>
   </si>
 </sst>
 </file>
@@ -76,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -95,10 +101,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,21 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -133,35 +125,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,60 +225,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -254,25 +260,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,13 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,49 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,92 +444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -463,11 +469,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +556,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,45 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -568,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,137 +623,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +768,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1074,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1167,16 +1225,16 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -1185,16 +1243,16 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" ht="28" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -1203,16 +1261,16 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" ht="28" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -1221,16 +1279,16 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" ht="28" spans="1:12">
       <c r="A8" s="2" t="s">
@@ -1239,16 +1297,16 @@
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
@@ -1257,18 +1315,44 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
